--- a/Code/Results/Cases/Case_3_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_117/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005719217592997</v>
+        <v>1.030222437722262</v>
       </c>
       <c r="D2">
-        <v>1.022569393923579</v>
+        <v>1.035566803709351</v>
       </c>
       <c r="E2">
-        <v>1.011352539013804</v>
+        <v>1.029952765763676</v>
       </c>
       <c r="F2">
-        <v>0.9716342664674313</v>
+        <v>1.041996612835217</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044818500934988</v>
+        <v>1.037866156299475</v>
       </c>
       <c r="J2">
-        <v>1.02773020317688</v>
+        <v>1.035364874375759</v>
       </c>
       <c r="K2">
-        <v>1.033723006806951</v>
+        <v>1.038363039763212</v>
       </c>
       <c r="L2">
-        <v>1.022655948541074</v>
+        <v>1.03276518387113</v>
       </c>
       <c r="M2">
-        <v>0.9835034557199046</v>
+        <v>1.044774547989205</v>
       </c>
       <c r="N2">
-        <v>1.029189697947693</v>
+        <v>1.036835211255401</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010098823556984</v>
+        <v>1.031104783179362</v>
       </c>
       <c r="D3">
-        <v>1.026012235009613</v>
+        <v>1.036265810512665</v>
       </c>
       <c r="E3">
-        <v>1.014845401496859</v>
+        <v>1.030700757619069</v>
       </c>
       <c r="F3">
-        <v>0.9835164000522718</v>
+        <v>1.044226453738626</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046800923899293</v>
+        <v>1.038177146327951</v>
       </c>
       <c r="J3">
-        <v>1.030317919835547</v>
+        <v>1.035888925670716</v>
       </c>
       <c r="K3">
-        <v>1.036322760636762</v>
+        <v>1.038871761577307</v>
       </c>
       <c r="L3">
-        <v>1.025291792014583</v>
+        <v>1.033321591033351</v>
       </c>
       <c r="M3">
-        <v>0.9943646287028806</v>
+        <v>1.046811413919474</v>
       </c>
       <c r="N3">
-        <v>1.031781089460831</v>
+        <v>1.037360006763289</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012865413517405</v>
+        <v>1.031675734904748</v>
       </c>
       <c r="D4">
-        <v>1.028185303790241</v>
+        <v>1.036717932095541</v>
       </c>
       <c r="E4">
-        <v>1.017056980533231</v>
+        <v>1.031185141763024</v>
       </c>
       <c r="F4">
-        <v>0.9908706569845689</v>
+        <v>1.045663758802845</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048032619807134</v>
+        <v>1.038376659397961</v>
       </c>
       <c r="J4">
-        <v>1.031945649471732</v>
+        <v>1.036227404932204</v>
       </c>
       <c r="K4">
-        <v>1.037955053757384</v>
+        <v>1.039200082571542</v>
       </c>
       <c r="L4">
-        <v>1.026953810892936</v>
+        <v>1.033681344037096</v>
       </c>
       <c r="M4">
-        <v>1.001080528425589</v>
+        <v>1.048123528012336</v>
       </c>
       <c r="N4">
-        <v>1.033411130659803</v>
+        <v>1.037698966704152</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01401314801542</v>
+        <v>1.031915767070637</v>
       </c>
       <c r="D5">
-        <v>1.029086432734186</v>
+        <v>1.036907960724953</v>
       </c>
       <c r="E5">
-        <v>1.017975676304433</v>
+        <v>1.031388868545573</v>
       </c>
       <c r="F5">
-        <v>0.9938891541805515</v>
+        <v>1.046266705444914</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048538844050221</v>
+        <v>1.038460124979242</v>
       </c>
       <c r="J5">
-        <v>1.032619310328659</v>
+        <v>1.036369554426658</v>
       </c>
       <c r="K5">
-        <v>1.038629912995999</v>
+        <v>1.039337904545286</v>
       </c>
       <c r="L5">
-        <v>1.027642600081047</v>
+        <v>1.033832517495369</v>
       </c>
       <c r="M5">
-        <v>1.00383542808798</v>
+        <v>1.048673764758163</v>
       </c>
       <c r="N5">
-        <v>1.034085748192417</v>
+        <v>1.037841318067193</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0142049793059</v>
+        <v>1.031956069777289</v>
       </c>
       <c r="D6">
-        <v>1.029237025334984</v>
+        <v>1.036939864841439</v>
       </c>
       <c r="E6">
-        <v>1.018129296743425</v>
+        <v>1.031423080542154</v>
       </c>
       <c r="F6">
-        <v>0.9943918591377442</v>
+        <v>1.046367867754424</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048623179535053</v>
+        <v>1.038474115238981</v>
       </c>
       <c r="J6">
-        <v>1.032731811923146</v>
+        <v>1.036393413335688</v>
       </c>
       <c r="K6">
-        <v>1.038742574944422</v>
+        <v>1.03936103351004</v>
       </c>
       <c r="L6">
-        <v>1.027757682531862</v>
+        <v>1.033857896279196</v>
       </c>
       <c r="M6">
-        <v>1.004294138514762</v>
+        <v>1.048766072111573</v>
       </c>
       <c r="N6">
-        <v>1.034198409552072</v>
+        <v>1.03786521085861</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01288080890674</v>
+        <v>1.031678942209868</v>
       </c>
       <c r="D7">
-        <v>1.028197392733791</v>
+        <v>1.036720471437008</v>
       </c>
       <c r="E7">
-        <v>1.017069298907831</v>
+        <v>1.031187863610167</v>
       </c>
       <c r="F7">
-        <v>0.9909112697556927</v>
+        <v>1.04567182045982</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048039428709413</v>
+        <v>1.038377776277055</v>
       </c>
       <c r="J7">
-        <v>1.031954692080419</v>
+        <v>1.036229304918459</v>
       </c>
       <c r="K7">
-        <v>1.037964115145475</v>
+        <v>1.039201924956866</v>
       </c>
       <c r="L7">
-        <v>1.026963052894428</v>
+        <v>1.033683364286097</v>
       </c>
       <c r="M7">
-        <v>1.001117600945551</v>
+        <v>1.048130885672652</v>
       </c>
       <c r="N7">
-        <v>1.033420186110031</v>
+        <v>1.037700869388606</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007213752457851</v>
+        <v>1.030520627610024</v>
       </c>
       <c r="D8">
-        <v>1.023744661377152</v>
+        <v>1.035803074394884</v>
       </c>
       <c r="E8">
-        <v>1.012543378486317</v>
+        <v>1.030205473677595</v>
       </c>
       <c r="F8">
-        <v>0.975723507497107</v>
+        <v>1.042751367114092</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045499456960112</v>
+        <v>1.037971613615539</v>
       </c>
       <c r="J8">
-        <v>1.028614748635438</v>
+        <v>1.035542108030322</v>
       </c>
       <c r="K8">
-        <v>1.034612322117319</v>
+        <v>1.03853514239921</v>
       </c>
       <c r="L8">
-        <v>1.023556080637897</v>
+        <v>1.032953282329261</v>
       </c>
       <c r="M8">
-        <v>0.9872426799980312</v>
+        <v>1.045464151059948</v>
       </c>
       <c r="N8">
-        <v>1.030075499562261</v>
+        <v>1.037012696602065</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9966728520452863</v>
+        <v>1.028479625283587</v>
       </c>
       <c r="D9">
-        <v>1.015445412333866</v>
+        <v>1.034185084458977</v>
       </c>
       <c r="E9">
-        <v>1.004167337379186</v>
+        <v>1.028477316000476</v>
       </c>
       <c r="F9">
-        <v>0.946033329317742</v>
+        <v>1.037561166417176</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040598630476741</v>
+        <v>1.037242667807848</v>
       </c>
       <c r="J9">
-        <v>1.022343650041301</v>
+        <v>1.034326429353196</v>
       </c>
       <c r="K9">
-        <v>1.028292772030868</v>
+        <v>1.037353594113317</v>
       </c>
       <c r="L9">
-        <v>1.017193162351442</v>
+        <v>1.031664630618117</v>
       </c>
       <c r="M9">
-        <v>0.9600671865015296</v>
+        <v>1.040718659865583</v>
       </c>
       <c r="N9">
-        <v>1.023795495288815</v>
+        <v>1.035795291521778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.989208332394513</v>
+        <v>1.027118988314643</v>
       </c>
       <c r="D10">
-        <v>1.009550959158478</v>
+        <v>1.033105436423315</v>
       </c>
       <c r="E10">
-        <v>0.9982659258330708</v>
+        <v>1.02732718592052</v>
       </c>
       <c r="F10">
-        <v>0.9236250578493498</v>
+        <v>1.034069378622976</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036987506575629</v>
+        <v>1.036747696795409</v>
       </c>
       <c r="J10">
-        <v>1.017856755715211</v>
+        <v>1.033512745164819</v>
       </c>
       <c r="K10">
-        <v>1.023749883084208</v>
+        <v>1.036561408910787</v>
       </c>
       <c r="L10">
-        <v>1.012666560268297</v>
+        <v>1.030804060341746</v>
       </c>
       <c r="M10">
-        <v>0.9395252627608177</v>
+        <v>1.037521889291218</v>
       </c>
       <c r="N10">
-        <v>1.019302229058128</v>
+        <v>1.034980451808522</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9858543940906224</v>
+        <v>1.026529816079208</v>
       </c>
       <c r="D11">
-        <v>1.006896327175506</v>
+        <v>1.032637693576621</v>
       </c>
       <c r="E11">
-        <v>0.9956216467557949</v>
+        <v>1.026829633784706</v>
       </c>
       <c r="F11">
-        <v>0.9131018025814083</v>
+        <v>1.032549420474693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035324950789652</v>
+        <v>1.03653120743088</v>
       </c>
       <c r="J11">
-        <v>1.015827721527874</v>
+        <v>1.033159634821531</v>
       </c>
       <c r="K11">
-        <v>1.021689350287331</v>
+        <v>1.036217306680817</v>
       </c>
       <c r="L11">
-        <v>1.01062660746677</v>
+        <v>1.03043106969008</v>
       </c>
       <c r="M11">
-        <v>0.9298722727665439</v>
+        <v>1.036129363216092</v>
       </c>
       <c r="N11">
-        <v>1.017270313409512</v>
+        <v>1.034626840008044</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9845883803613573</v>
+        <v>1.026310969265036</v>
       </c>
       <c r="D12">
-        <v>1.005893104805883</v>
+        <v>1.032463914877766</v>
       </c>
       <c r="E12">
-        <v>0.9946246126754956</v>
+        <v>1.026644889888234</v>
       </c>
       <c r="F12">
-        <v>0.9090466660107727</v>
+        <v>1.031983599191064</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034690598754372</v>
+        <v>1.036450466321165</v>
       </c>
       <c r="J12">
-        <v>1.015059618775239</v>
+        <v>1.033028355842255</v>
       </c>
       <c r="K12">
-        <v>1.020908266473831</v>
+        <v>1.036089328164532</v>
       </c>
       <c r="L12">
-        <v>1.00985552633997</v>
+        <v>1.030292469961573</v>
       </c>
       <c r="M12">
-        <v>0.9261517151251513</v>
+        <v>1.0356108316845</v>
       </c>
       <c r="N12">
-        <v>1.016501119862866</v>
+        <v>1.03449537459756</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9848608946312365</v>
+        <v>1.026357912755411</v>
       </c>
       <c r="D13">
-        <v>1.006109110333535</v>
+        <v>1.032501192741234</v>
       </c>
       <c r="E13">
-        <v>0.9948391783176885</v>
+        <v>1.026684514957815</v>
       </c>
       <c r="F13">
-        <v>0.9099235723940929</v>
+        <v>1.032105026600978</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034827466710895</v>
+        <v>1.03646780041199</v>
       </c>
       <c r="J13">
-        <v>1.015225060084733</v>
+        <v>1.033056520987449</v>
       </c>
       <c r="K13">
-        <v>1.021076553946308</v>
+        <v>1.036116787415648</v>
       </c>
       <c r="L13">
-        <v>1.010021555195781</v>
+        <v>1.030322202545227</v>
       </c>
       <c r="M13">
-        <v>0.926956302291563</v>
+        <v>1.035722117237624</v>
       </c>
       <c r="N13">
-        <v>1.016666796117995</v>
+        <v>1.03452357974049</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.985750169903281</v>
+        <v>1.026511726179651</v>
       </c>
       <c r="D14">
-        <v>1.006813762837667</v>
+        <v>1.032623329759395</v>
       </c>
       <c r="E14">
-        <v>0.9955395438628872</v>
+        <v>1.026814361388175</v>
       </c>
       <c r="F14">
-        <v>0.9127697462057003</v>
+        <v>1.032502675067381</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035272870936515</v>
+        <v>1.036524540036042</v>
       </c>
       <c r="J14">
-        <v>1.015764534107875</v>
+        <v>1.033148785674376</v>
       </c>
       <c r="K14">
-        <v>1.021625117296441</v>
+        <v>1.036206731282049</v>
       </c>
       <c r="L14">
-        <v>1.010563150963971</v>
+        <v>1.030419614106485</v>
       </c>
       <c r="M14">
-        <v>0.9295676281580991</v>
+        <v>1.036086527680019</v>
       </c>
       <c r="N14">
-        <v>1.017207036256129</v>
+        <v>1.034615975453855</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9862953390543515</v>
+        <v>1.026606495412675</v>
       </c>
       <c r="D15">
-        <v>1.007245585467435</v>
+        <v>1.032698577320407</v>
       </c>
       <c r="E15">
-        <v>0.9959690472723308</v>
+        <v>1.026894373210202</v>
       </c>
       <c r="F15">
-        <v>0.9145031745947704</v>
+        <v>1.032747513720395</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035545005611904</v>
+        <v>1.036559455749532</v>
       </c>
       <c r="J15">
-        <v>1.016094959527539</v>
+        <v>1.033205617318466</v>
       </c>
       <c r="K15">
-        <v>1.021960966494292</v>
+        <v>1.03626212694645</v>
       </c>
       <c r="L15">
-        <v>1.010895031072536</v>
+        <v>1.030479625358197</v>
       </c>
       <c r="M15">
-        <v>0.9311579289986233</v>
+        <v>1.036310881515793</v>
       </c>
       <c r="N15">
-        <v>1.017537930917789</v>
+        <v>1.0346728878054</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9894282021643368</v>
+        <v>1.027158089503126</v>
       </c>
       <c r="D16">
-        <v>1.009724838378217</v>
+        <v>1.033136473672001</v>
       </c>
       <c r="E16">
-        <v>0.998439426015887</v>
+        <v>1.02736021652517</v>
       </c>
       <c r="F16">
-        <v>0.9243043406858532</v>
+        <v>1.034170081429378</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037095605960729</v>
+        <v>1.036762018704466</v>
       </c>
       <c r="J16">
-        <v>1.017989481539425</v>
+        <v>1.033536163428879</v>
       </c>
       <c r="K16">
-        <v>1.023884531460475</v>
+        <v>1.036584222965589</v>
       </c>
       <c r="L16">
-        <v>1.012800153605447</v>
+        <v>1.03082880690877</v>
       </c>
       <c r="M16">
-        <v>0.94014825501897</v>
+        <v>1.037614128502189</v>
       </c>
       <c r="N16">
-        <v>1.019435143368237</v>
+        <v>1.035003903329203</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9913595321425583</v>
+        <v>1.02750408728898</v>
       </c>
       <c r="D17">
-        <v>1.011251471006112</v>
+        <v>1.033411087432297</v>
       </c>
       <c r="E17">
-        <v>0.9999642786960664</v>
+        <v>1.02765255119001</v>
       </c>
       <c r="F17">
-        <v>0.9302183263304341</v>
+        <v>1.035060252715859</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03804054776981</v>
+        <v>1.036888500246579</v>
       </c>
       <c r="J17">
-        <v>1.019153848546604</v>
+        <v>1.033743296871299</v>
       </c>
       <c r="K17">
-        <v>1.025065055886272</v>
+        <v>1.036785975057657</v>
       </c>
       <c r="L17">
-        <v>1.013972934265195</v>
+        <v>1.031047742997567</v>
       </c>
       <c r="M17">
-        <v>0.9455714912103027</v>
+        <v>1.038429371345465</v>
       </c>
       <c r="N17">
-        <v>1.02060116391012</v>
+        <v>1.035211330924869</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9924744447897004</v>
+        <v>1.027705901288537</v>
       </c>
       <c r="D18">
-        <v>1.012132200761785</v>
+        <v>1.033571241116764</v>
       </c>
       <c r="E18">
-        <v>1.000845233032841</v>
+        <v>1.02782310962943</v>
       </c>
       <c r="F18">
-        <v>0.9335905478827972</v>
+        <v>1.035578706328582</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038582325719962</v>
+        <v>1.036962066184887</v>
       </c>
       <c r="J18">
-        <v>1.019824804574139</v>
+        <v>1.033864039137796</v>
       </c>
       <c r="K18">
-        <v>1.025744751884773</v>
+        <v>1.036903549444432</v>
       </c>
       <c r="L18">
-        <v>1.014649392586114</v>
+        <v>1.031175410211334</v>
       </c>
       <c r="M18">
-        <v>0.948663301446605</v>
+        <v>1.038904090143104</v>
       </c>
       <c r="N18">
-        <v>1.021273072772174</v>
+        <v>1.035332244659234</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9928526857623456</v>
+        <v>1.027774714561932</v>
       </c>
       <c r="D19">
-        <v>1.012430904905642</v>
+        <v>1.033625845360857</v>
       </c>
       <c r="E19">
-        <v>1.001144219254305</v>
+        <v>1.027881273217192</v>
       </c>
       <c r="F19">
-        <v>0.9347278776145248</v>
+        <v>1.035755356524139</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038765516577182</v>
+        <v>1.036987114952991</v>
       </c>
       <c r="J19">
-        <v>1.020052232104477</v>
+        <v>1.033905196408267</v>
       </c>
       <c r="K19">
-        <v>1.025975048391139</v>
+        <v>1.036943621635421</v>
       </c>
       <c r="L19">
-        <v>1.014878793615209</v>
+        <v>1.031218935597107</v>
       </c>
       <c r="M19">
-        <v>0.9497059561842313</v>
+        <v>1.039065822671825</v>
       </c>
       <c r="N19">
-        <v>1.021500823275691</v>
+        <v>1.035373460377751</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9911535311120426</v>
+        <v>1.027466965075378</v>
       </c>
       <c r="D20">
-        <v>1.01108869584297</v>
+        <v>1.033381626450879</v>
       </c>
       <c r="E20">
-        <v>0.9998015617671842</v>
+        <v>1.027621181838392</v>
       </c>
       <c r="F20">
-        <v>0.9295919545290949</v>
+        <v>1.034964825515575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037940148275762</v>
+        <v>1.036874951567412</v>
       </c>
       <c r="J20">
-        <v>1.019029780732587</v>
+        <v>1.033721081194761</v>
       </c>
       <c r="K20">
-        <v>1.024939326532077</v>
+        <v>1.036764339753966</v>
       </c>
       <c r="L20">
-        <v>1.013847901369767</v>
+        <v>1.031024256800398</v>
       </c>
       <c r="M20">
-        <v>0.9449971560905005</v>
+        <v>1.03834198637473</v>
       </c>
       <c r="N20">
-        <v>1.020476919905577</v>
+        <v>1.035189083699523</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9854888759478858</v>
+        <v>1.026466432022845</v>
       </c>
       <c r="D21">
-        <v>1.006606750999225</v>
+        <v>1.032587364513139</v>
       </c>
       <c r="E21">
-        <v>0.9953337265718687</v>
+        <v>1.026776122944953</v>
       </c>
       <c r="F21">
-        <v>0.9119358772368028</v>
+        <v>1.032385612096494</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035142192563768</v>
+        <v>1.036507840684979</v>
       </c>
       <c r="J21">
-        <v>1.015606084455662</v>
+        <v>1.033121619290835</v>
       </c>
       <c r="K21">
-        <v>1.021464028255239</v>
+        <v>1.036180249582319</v>
       </c>
       <c r="L21">
-        <v>1.010404045502602</v>
+        <v>1.030390930336121</v>
       </c>
       <c r="M21">
-        <v>0.9288025845110457</v>
+        <v>1.035979253676582</v>
       </c>
       <c r="N21">
-        <v>1.017048361587235</v>
+        <v>1.034588770490934</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9818090559479222</v>
+        <v>1.025837345064312</v>
       </c>
       <c r="D22">
-        <v>1.003688164029277</v>
+        <v>1.032087759134042</v>
       </c>
       <c r="E22">
-        <v>0.9924378120645242</v>
+        <v>1.02624520063322</v>
       </c>
       <c r="F22">
-        <v>0.8999712829130817</v>
+        <v>1.030756756710103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033284399468257</v>
+        <v>1.036275128571855</v>
       </c>
       <c r="J22">
-        <v>1.013368964547078</v>
+        <v>1.032744030162467</v>
       </c>
       <c r="K22">
-        <v>1.019186910036228</v>
+        <v>1.035812061564685</v>
       </c>
       <c r="L22">
-        <v>1.008160580794675</v>
+        <v>1.029992417827519</v>
       </c>
       <c r="M22">
-        <v>0.9178238841587817</v>
+        <v>1.034486254005086</v>
       </c>
       <c r="N22">
-        <v>1.01480806471178</v>
+        <v>1.034210645142693</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9837717632135869</v>
+        <v>1.026170837420062</v>
       </c>
       <c r="D23">
-        <v>1.005245624866709</v>
+        <v>1.032352630694858</v>
       </c>
       <c r="E23">
-        <v>0.9939818057209768</v>
+        <v>1.026526614798582</v>
       </c>
       <c r="F23">
-        <v>0.9064053982753169</v>
+        <v>1.031620940130176</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034279391838552</v>
+        <v>1.036398674050121</v>
       </c>
       <c r="J23">
-        <v>1.014563510083148</v>
+        <v>1.03294426242464</v>
       </c>
       <c r="K23">
-        <v>1.020403455862088</v>
+        <v>1.03600733522381</v>
       </c>
       <c r="L23">
-        <v>1.009357834130228</v>
+        <v>1.030203706918117</v>
       </c>
       <c r="M23">
-        <v>0.9237281752943431</v>
+        <v>1.035278440922098</v>
       </c>
       <c r="N23">
-        <v>1.016004306639527</v>
+        <v>1.034411161757646</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9912466498168985</v>
+        <v>1.027483739008259</v>
       </c>
       <c r="D24">
-        <v>1.011162276868089</v>
+        <v>1.033394938674364</v>
       </c>
       <c r="E24">
-        <v>0.9998751126006743</v>
+        <v>1.027635356160768</v>
       </c>
       <c r="F24">
-        <v>0.9298752222109073</v>
+        <v>1.035007947332012</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037985543364218</v>
+        <v>1.036881074276991</v>
       </c>
       <c r="J24">
-        <v>1.019085866868903</v>
+        <v>1.033731119735241</v>
       </c>
       <c r="K24">
-        <v>1.024996165547932</v>
+        <v>1.036774116138614</v>
       </c>
       <c r="L24">
-        <v>1.0139044217567</v>
+        <v>1.031034869308844</v>
       </c>
       <c r="M24">
-        <v>0.945256892749245</v>
+        <v>1.038381474347611</v>
       </c>
       <c r="N24">
-        <v>1.020533085690639</v>
+        <v>1.035199136495882</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9994697061295671</v>
+        <v>1.029007265240068</v>
       </c>
       <c r="D25">
-        <v>1.017649939029305</v>
+        <v>1.034603545160406</v>
       </c>
       <c r="E25">
-        <v>1.006384714735704</v>
+        <v>1.028923737886028</v>
       </c>
       <c r="F25">
-        <v>0.9541140998843838</v>
+        <v>1.038908382505991</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04192130340135</v>
+        <v>1.037432697234461</v>
       </c>
       <c r="J25">
-        <v>1.024014929967459</v>
+        <v>1.034641278135998</v>
       </c>
       <c r="K25">
-        <v>1.029980304508316</v>
+        <v>1.037659839314962</v>
       </c>
       <c r="L25">
-        <v>1.018884718218204</v>
+        <v>1.031998035281274</v>
       </c>
       <c r="M25">
-        <v>0.9674691080702278</v>
+        <v>1.041951174963077</v>
       </c>
       <c r="N25">
-        <v>1.025469148624167</v>
+        <v>1.036110587425965</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_117/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030222437722262</v>
+        <v>1.005719217592998</v>
       </c>
       <c r="D2">
-        <v>1.035566803709351</v>
+        <v>1.022569393923579</v>
       </c>
       <c r="E2">
-        <v>1.029952765763676</v>
+        <v>1.011352539013805</v>
       </c>
       <c r="F2">
-        <v>1.041996612835217</v>
+        <v>0.9716342664674327</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037866156299475</v>
+        <v>1.044818500934988</v>
       </c>
       <c r="J2">
-        <v>1.035364874375759</v>
+        <v>1.027730203176881</v>
       </c>
       <c r="K2">
-        <v>1.038363039763212</v>
+        <v>1.033723006806952</v>
       </c>
       <c r="L2">
-        <v>1.03276518387113</v>
+        <v>1.022655948541074</v>
       </c>
       <c r="M2">
-        <v>1.044774547989205</v>
+        <v>0.9835034557199058</v>
       </c>
       <c r="N2">
-        <v>1.036835211255401</v>
+        <v>1.029189697947693</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031104783179362</v>
+        <v>1.010098823556983</v>
       </c>
       <c r="D3">
-        <v>1.036265810512665</v>
+        <v>1.026012235009612</v>
       </c>
       <c r="E3">
-        <v>1.030700757619069</v>
+        <v>1.014845401496858</v>
       </c>
       <c r="F3">
-        <v>1.044226453738626</v>
+        <v>0.9835164000522701</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038177146327951</v>
+        <v>1.046800923899292</v>
       </c>
       <c r="J3">
-        <v>1.035888925670716</v>
+        <v>1.030317919835547</v>
       </c>
       <c r="K3">
-        <v>1.038871761577307</v>
+        <v>1.036322760636762</v>
       </c>
       <c r="L3">
-        <v>1.033321591033351</v>
+        <v>1.025291792014582</v>
       </c>
       <c r="M3">
-        <v>1.046811413919474</v>
+        <v>0.9943646287028789</v>
       </c>
       <c r="N3">
-        <v>1.037360006763289</v>
+        <v>1.03178108946083</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031675734904748</v>
+        <v>1.012865413517404</v>
       </c>
       <c r="D4">
-        <v>1.036717932095541</v>
+        <v>1.028185303790241</v>
       </c>
       <c r="E4">
-        <v>1.031185141763024</v>
+        <v>1.01705698053323</v>
       </c>
       <c r="F4">
-        <v>1.045663758802845</v>
+        <v>0.9908706569845694</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038376659397961</v>
+        <v>1.048032619807134</v>
       </c>
       <c r="J4">
-        <v>1.036227404932204</v>
+        <v>1.031945649471732</v>
       </c>
       <c r="K4">
-        <v>1.039200082571542</v>
+        <v>1.037955053757384</v>
       </c>
       <c r="L4">
-        <v>1.033681344037096</v>
+        <v>1.026953810892935</v>
       </c>
       <c r="M4">
-        <v>1.048123528012336</v>
+        <v>1.001080528425589</v>
       </c>
       <c r="N4">
-        <v>1.037698966704152</v>
+        <v>1.033411130659802</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031915767070637</v>
+        <v>1.01401314801542</v>
       </c>
       <c r="D5">
-        <v>1.036907960724953</v>
+        <v>1.029086432734186</v>
       </c>
       <c r="E5">
-        <v>1.031388868545573</v>
+        <v>1.017975676304433</v>
       </c>
       <c r="F5">
-        <v>1.046266705444914</v>
+        <v>0.993889154180552</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038460124979242</v>
+        <v>1.048538844050221</v>
       </c>
       <c r="J5">
-        <v>1.036369554426658</v>
+        <v>1.03261931032866</v>
       </c>
       <c r="K5">
-        <v>1.039337904545286</v>
+        <v>1.038629912995999</v>
       </c>
       <c r="L5">
-        <v>1.033832517495369</v>
+        <v>1.027642600081047</v>
       </c>
       <c r="M5">
-        <v>1.048673764758163</v>
+        <v>1.003835428087981</v>
       </c>
       <c r="N5">
-        <v>1.037841318067193</v>
+        <v>1.034085748192417</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031956069777289</v>
+        <v>1.014204979305899</v>
       </c>
       <c r="D6">
-        <v>1.036939864841439</v>
+        <v>1.029237025334983</v>
       </c>
       <c r="E6">
-        <v>1.031423080542154</v>
+        <v>1.018129296743423</v>
       </c>
       <c r="F6">
-        <v>1.046367867754424</v>
+        <v>0.9943918591377434</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038474115238981</v>
+        <v>1.048623179535052</v>
       </c>
       <c r="J6">
-        <v>1.036393413335688</v>
+        <v>1.032731811923145</v>
       </c>
       <c r="K6">
-        <v>1.03936103351004</v>
+        <v>1.038742574944421</v>
       </c>
       <c r="L6">
-        <v>1.033857896279196</v>
+        <v>1.027757682531862</v>
       </c>
       <c r="M6">
-        <v>1.048766072111573</v>
+        <v>1.004294138514761</v>
       </c>
       <c r="N6">
-        <v>1.03786521085861</v>
+        <v>1.034198409552071</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031678942209868</v>
+        <v>1.012880808906738</v>
       </c>
       <c r="D7">
-        <v>1.036720471437008</v>
+        <v>1.02819739273379</v>
       </c>
       <c r="E7">
-        <v>1.031187863610167</v>
+        <v>1.017069298907831</v>
       </c>
       <c r="F7">
-        <v>1.04567182045982</v>
+        <v>0.9909112697556917</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038377776277055</v>
+        <v>1.048039428709412</v>
       </c>
       <c r="J7">
-        <v>1.036229304918459</v>
+        <v>1.031954692080418</v>
       </c>
       <c r="K7">
-        <v>1.039201924956866</v>
+        <v>1.037964115145474</v>
       </c>
       <c r="L7">
-        <v>1.033683364286097</v>
+        <v>1.026963052894428</v>
       </c>
       <c r="M7">
-        <v>1.048130885672652</v>
+        <v>1.00111760094555</v>
       </c>
       <c r="N7">
-        <v>1.037700869388606</v>
+        <v>1.03342018611003</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030520627610024</v>
+        <v>1.007213752457851</v>
       </c>
       <c r="D8">
-        <v>1.035803074394884</v>
+        <v>1.023744661377151</v>
       </c>
       <c r="E8">
-        <v>1.030205473677595</v>
+        <v>1.012543378486318</v>
       </c>
       <c r="F8">
-        <v>1.042751367114092</v>
+        <v>0.9757235074971072</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037971613615539</v>
+        <v>1.045499456960111</v>
       </c>
       <c r="J8">
-        <v>1.035542108030322</v>
+        <v>1.028614748635438</v>
       </c>
       <c r="K8">
-        <v>1.03853514239921</v>
+        <v>1.034612322117319</v>
       </c>
       <c r="L8">
-        <v>1.032953282329261</v>
+        <v>1.023556080637897</v>
       </c>
       <c r="M8">
-        <v>1.045464151059948</v>
+        <v>0.9872426799980315</v>
       </c>
       <c r="N8">
-        <v>1.037012696602065</v>
+        <v>1.030075499562261</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028479625283587</v>
+        <v>0.9966728520452861</v>
       </c>
       <c r="D9">
-        <v>1.034185084458977</v>
+        <v>1.015445412333865</v>
       </c>
       <c r="E9">
-        <v>1.028477316000476</v>
+        <v>1.004167337379186</v>
       </c>
       <c r="F9">
-        <v>1.037561166417176</v>
+        <v>0.9460333293177404</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037242667807848</v>
+        <v>1.040598630476741</v>
       </c>
       <c r="J9">
-        <v>1.034326429353196</v>
+        <v>1.0223436500413</v>
       </c>
       <c r="K9">
-        <v>1.037353594113317</v>
+        <v>1.028292772030868</v>
       </c>
       <c r="L9">
-        <v>1.031664630618117</v>
+        <v>1.017193162351442</v>
       </c>
       <c r="M9">
-        <v>1.040718659865583</v>
+        <v>0.9600671865015283</v>
       </c>
       <c r="N9">
-        <v>1.035795291521778</v>
+        <v>1.023795495288815</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027118988314643</v>
+        <v>0.9892083323945123</v>
       </c>
       <c r="D10">
-        <v>1.033105436423315</v>
+        <v>1.009550959158477</v>
       </c>
       <c r="E10">
-        <v>1.02732718592052</v>
+        <v>0.9982659258330701</v>
       </c>
       <c r="F10">
-        <v>1.034069378622976</v>
+        <v>0.923625057849349</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036747696795409</v>
+        <v>1.036987506575628</v>
       </c>
       <c r="J10">
-        <v>1.033512745164819</v>
+        <v>1.01785675571521</v>
       </c>
       <c r="K10">
-        <v>1.036561408910787</v>
+        <v>1.023749883084207</v>
       </c>
       <c r="L10">
-        <v>1.030804060341746</v>
+        <v>1.012666560268296</v>
       </c>
       <c r="M10">
-        <v>1.037521889291218</v>
+        <v>0.9395252627608169</v>
       </c>
       <c r="N10">
-        <v>1.034980451808522</v>
+        <v>1.019302229058127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026529816079208</v>
+        <v>0.985854394090621</v>
       </c>
       <c r="D11">
-        <v>1.032637693576621</v>
+        <v>1.006896327175505</v>
       </c>
       <c r="E11">
-        <v>1.026829633784706</v>
+        <v>0.9956216467557941</v>
       </c>
       <c r="F11">
-        <v>1.032549420474693</v>
+        <v>0.9131018025814068</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03653120743088</v>
+        <v>1.03532495078965</v>
       </c>
       <c r="J11">
-        <v>1.033159634821531</v>
+        <v>1.015827721527873</v>
       </c>
       <c r="K11">
-        <v>1.036217306680817</v>
+        <v>1.02168935028733</v>
       </c>
       <c r="L11">
-        <v>1.03043106969008</v>
+        <v>1.010626607466769</v>
       </c>
       <c r="M11">
-        <v>1.036129363216092</v>
+        <v>0.9298722727665424</v>
       </c>
       <c r="N11">
-        <v>1.034626840008044</v>
+        <v>1.017270313409511</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026310969265036</v>
+        <v>0.9845883803613577</v>
       </c>
       <c r="D12">
-        <v>1.032463914877766</v>
+        <v>1.005893104805884</v>
       </c>
       <c r="E12">
-        <v>1.026644889888234</v>
+        <v>0.9946246126754957</v>
       </c>
       <c r="F12">
-        <v>1.031983599191064</v>
+        <v>0.909046666010773</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036450466321165</v>
+        <v>1.034690598754373</v>
       </c>
       <c r="J12">
-        <v>1.033028355842255</v>
+        <v>1.01505961877524</v>
       </c>
       <c r="K12">
-        <v>1.036089328164532</v>
+        <v>1.020908266473832</v>
       </c>
       <c r="L12">
-        <v>1.030292469961573</v>
+        <v>1.009855526339971</v>
       </c>
       <c r="M12">
-        <v>1.0356108316845</v>
+        <v>0.9261517151251516</v>
       </c>
       <c r="N12">
-        <v>1.03449537459756</v>
+        <v>1.016501119862866</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026357912755411</v>
+        <v>0.9848608946312364</v>
       </c>
       <c r="D13">
-        <v>1.032501192741234</v>
+        <v>1.006109110333535</v>
       </c>
       <c r="E13">
-        <v>1.026684514957815</v>
+        <v>0.9948391783176886</v>
       </c>
       <c r="F13">
-        <v>1.032105026600978</v>
+        <v>0.9099235723940923</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03646780041199</v>
+        <v>1.034827466710895</v>
       </c>
       <c r="J13">
-        <v>1.033056520987449</v>
+        <v>1.015225060084733</v>
       </c>
       <c r="K13">
-        <v>1.036116787415648</v>
+        <v>1.021076553946308</v>
       </c>
       <c r="L13">
-        <v>1.030322202545227</v>
+        <v>1.010021555195781</v>
       </c>
       <c r="M13">
-        <v>1.035722117237624</v>
+        <v>0.9269563022915622</v>
       </c>
       <c r="N13">
-        <v>1.03452357974049</v>
+        <v>1.016666796117995</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026511726179651</v>
+        <v>0.9857501699032803</v>
       </c>
       <c r="D14">
-        <v>1.032623329759395</v>
+        <v>1.006813762837667</v>
       </c>
       <c r="E14">
-        <v>1.026814361388175</v>
+        <v>0.9955395438628868</v>
       </c>
       <c r="F14">
-        <v>1.032502675067381</v>
+        <v>0.9127697462057004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036524540036042</v>
+        <v>1.035272870936515</v>
       </c>
       <c r="J14">
-        <v>1.033148785674376</v>
+        <v>1.015764534107874</v>
       </c>
       <c r="K14">
-        <v>1.036206731282049</v>
+        <v>1.02162511729644</v>
       </c>
       <c r="L14">
-        <v>1.030419614106485</v>
+        <v>1.010563150963971</v>
       </c>
       <c r="M14">
-        <v>1.036086527680019</v>
+        <v>0.9295676281580993</v>
       </c>
       <c r="N14">
-        <v>1.034615975453855</v>
+        <v>1.017207036256128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026606495412675</v>
+        <v>0.9862953390543512</v>
       </c>
       <c r="D15">
-        <v>1.032698577320407</v>
+        <v>1.007245585467435</v>
       </c>
       <c r="E15">
-        <v>1.026894373210202</v>
+        <v>0.99596904727233</v>
       </c>
       <c r="F15">
-        <v>1.032747513720395</v>
+        <v>0.9145031745947706</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036559455749532</v>
+        <v>1.035545005611904</v>
       </c>
       <c r="J15">
-        <v>1.033205617318466</v>
+        <v>1.016094959527539</v>
       </c>
       <c r="K15">
-        <v>1.03626212694645</v>
+        <v>1.021960966494292</v>
       </c>
       <c r="L15">
-        <v>1.030479625358197</v>
+        <v>1.010895031072535</v>
       </c>
       <c r="M15">
-        <v>1.036310881515793</v>
+        <v>0.9311579289986236</v>
       </c>
       <c r="N15">
-        <v>1.0346728878054</v>
+        <v>1.017537930917788</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027158089503126</v>
+        <v>0.9894282021643366</v>
       </c>
       <c r="D16">
-        <v>1.033136473672001</v>
+        <v>1.009724838378217</v>
       </c>
       <c r="E16">
-        <v>1.02736021652517</v>
+        <v>0.9984394260158865</v>
       </c>
       <c r="F16">
-        <v>1.034170081429378</v>
+        <v>0.9243043406858518</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036762018704466</v>
+        <v>1.037095605960729</v>
       </c>
       <c r="J16">
-        <v>1.033536163428879</v>
+        <v>1.017989481539425</v>
       </c>
       <c r="K16">
-        <v>1.036584222965589</v>
+        <v>1.023884531460475</v>
       </c>
       <c r="L16">
-        <v>1.03082880690877</v>
+        <v>1.012800153605446</v>
       </c>
       <c r="M16">
-        <v>1.037614128502189</v>
+        <v>0.9401482550189689</v>
       </c>
       <c r="N16">
-        <v>1.035003903329203</v>
+        <v>1.019435143368236</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02750408728898</v>
+        <v>0.991359532142559</v>
       </c>
       <c r="D17">
-        <v>1.033411087432297</v>
+        <v>1.011251471006113</v>
       </c>
       <c r="E17">
-        <v>1.02765255119001</v>
+        <v>0.9999642786960669</v>
       </c>
       <c r="F17">
-        <v>1.035060252715859</v>
+        <v>0.9302183263304344</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036888500246579</v>
+        <v>1.038040547769811</v>
       </c>
       <c r="J17">
-        <v>1.033743296871299</v>
+        <v>1.019153848546604</v>
       </c>
       <c r="K17">
-        <v>1.036785975057657</v>
+        <v>1.025065055886273</v>
       </c>
       <c r="L17">
-        <v>1.031047742997567</v>
+        <v>1.013972934265195</v>
       </c>
       <c r="M17">
-        <v>1.038429371345465</v>
+        <v>0.9455714912103028</v>
       </c>
       <c r="N17">
-        <v>1.035211330924869</v>
+        <v>1.020601163910121</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027705901288537</v>
+        <v>0.9924744447897005</v>
       </c>
       <c r="D18">
-        <v>1.033571241116764</v>
+        <v>1.012132200761785</v>
       </c>
       <c r="E18">
-        <v>1.02782310962943</v>
+        <v>1.000845233032841</v>
       </c>
       <c r="F18">
-        <v>1.035578706328582</v>
+        <v>0.9335905478827962</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036962066184887</v>
+        <v>1.038582325719962</v>
       </c>
       <c r="J18">
-        <v>1.033864039137796</v>
+        <v>1.019824804574139</v>
       </c>
       <c r="K18">
-        <v>1.036903549444432</v>
+        <v>1.025744751884773</v>
       </c>
       <c r="L18">
-        <v>1.031175410211334</v>
+        <v>1.014649392586114</v>
       </c>
       <c r="M18">
-        <v>1.038904090143104</v>
+        <v>0.9486633014466043</v>
       </c>
       <c r="N18">
-        <v>1.035332244659234</v>
+        <v>1.021273072772174</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027774714561932</v>
+        <v>0.9928526857623445</v>
       </c>
       <c r="D19">
-        <v>1.033625845360857</v>
+        <v>1.012430904905641</v>
       </c>
       <c r="E19">
-        <v>1.027881273217192</v>
+        <v>1.001144219254304</v>
       </c>
       <c r="F19">
-        <v>1.035755356524139</v>
+        <v>0.9347278776145229</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036987114952991</v>
+        <v>1.038765516577181</v>
       </c>
       <c r="J19">
-        <v>1.033905196408267</v>
+        <v>1.020052232104475</v>
       </c>
       <c r="K19">
-        <v>1.036943621635421</v>
+        <v>1.025975048391138</v>
       </c>
       <c r="L19">
-        <v>1.031218935597107</v>
+        <v>1.014878793615208</v>
       </c>
       <c r="M19">
-        <v>1.039065822671825</v>
+        <v>0.9497059561842295</v>
       </c>
       <c r="N19">
-        <v>1.035373460377751</v>
+        <v>1.02150082327569</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027466965075378</v>
+        <v>0.9911535311120419</v>
       </c>
       <c r="D20">
-        <v>1.033381626450879</v>
+        <v>1.011088695842969</v>
       </c>
       <c r="E20">
-        <v>1.027621181838392</v>
+        <v>0.9998015617671834</v>
       </c>
       <c r="F20">
-        <v>1.034964825515575</v>
+        <v>0.9295919545290934</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036874951567412</v>
+        <v>1.037940148275761</v>
       </c>
       <c r="J20">
-        <v>1.033721081194761</v>
+        <v>1.019029780732586</v>
       </c>
       <c r="K20">
-        <v>1.036764339753966</v>
+        <v>1.024939326532076</v>
       </c>
       <c r="L20">
-        <v>1.031024256800398</v>
+        <v>1.013847901369766</v>
       </c>
       <c r="M20">
-        <v>1.03834198637473</v>
+        <v>0.9449971560904988</v>
       </c>
       <c r="N20">
-        <v>1.035189083699523</v>
+        <v>1.020476919905576</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026466432022845</v>
+        <v>0.9854888759478848</v>
       </c>
       <c r="D21">
-        <v>1.032587364513139</v>
+        <v>1.006606750999224</v>
       </c>
       <c r="E21">
-        <v>1.026776122944953</v>
+        <v>0.9953337265718675</v>
       </c>
       <c r="F21">
-        <v>1.032385612096494</v>
+        <v>0.9119358772368024</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036507840684979</v>
+        <v>1.035142192563767</v>
       </c>
       <c r="J21">
-        <v>1.033121619290835</v>
+        <v>1.015606084455661</v>
       </c>
       <c r="K21">
-        <v>1.036180249582319</v>
+        <v>1.021464028255238</v>
       </c>
       <c r="L21">
-        <v>1.030390930336121</v>
+        <v>1.010404045502601</v>
       </c>
       <c r="M21">
-        <v>1.035979253676582</v>
+        <v>0.9288025845110454</v>
       </c>
       <c r="N21">
-        <v>1.034588770490934</v>
+        <v>1.017048361587234</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025837345064312</v>
+        <v>0.9818090559479214</v>
       </c>
       <c r="D22">
-        <v>1.032087759134042</v>
+        <v>1.003688164029276</v>
       </c>
       <c r="E22">
-        <v>1.02624520063322</v>
+        <v>0.9924378120645231</v>
       </c>
       <c r="F22">
-        <v>1.030756756710103</v>
+        <v>0.8999712829130811</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036275128571855</v>
+        <v>1.033284399468257</v>
       </c>
       <c r="J22">
-        <v>1.032744030162467</v>
+        <v>1.013368964547077</v>
       </c>
       <c r="K22">
-        <v>1.035812061564685</v>
+        <v>1.019186910036227</v>
       </c>
       <c r="L22">
-        <v>1.029992417827519</v>
+        <v>1.008160580794674</v>
       </c>
       <c r="M22">
-        <v>1.034486254005086</v>
+        <v>0.9178238841587814</v>
       </c>
       <c r="N22">
-        <v>1.034210645142693</v>
+        <v>1.014808064711779</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026170837420062</v>
+        <v>0.9837717632135876</v>
       </c>
       <c r="D23">
-        <v>1.032352630694858</v>
+        <v>1.00524562486671</v>
       </c>
       <c r="E23">
-        <v>1.026526614798582</v>
+        <v>0.9939818057209774</v>
       </c>
       <c r="F23">
-        <v>1.031620940130176</v>
+        <v>0.9064053982753171</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036398674050121</v>
+        <v>1.034279391838552</v>
       </c>
       <c r="J23">
-        <v>1.03294426242464</v>
+        <v>1.014563510083149</v>
       </c>
       <c r="K23">
-        <v>1.03600733522381</v>
+        <v>1.020403455862089</v>
       </c>
       <c r="L23">
-        <v>1.030203706918117</v>
+        <v>1.009357834130229</v>
       </c>
       <c r="M23">
-        <v>1.035278440922098</v>
+        <v>0.9237281752943436</v>
       </c>
       <c r="N23">
-        <v>1.034411161757646</v>
+        <v>1.016004306639528</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.027483739008259</v>
+        <v>0.991246649816898</v>
       </c>
       <c r="D24">
-        <v>1.033394938674364</v>
+        <v>1.011162276868089</v>
       </c>
       <c r="E24">
-        <v>1.027635356160768</v>
+        <v>0.999875112600674</v>
       </c>
       <c r="F24">
-        <v>1.035007947332012</v>
+        <v>0.929875222210906</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036881074276991</v>
+        <v>1.037985543364218</v>
       </c>
       <c r="J24">
-        <v>1.033731119735241</v>
+        <v>1.019085866868902</v>
       </c>
       <c r="K24">
-        <v>1.036774116138614</v>
+        <v>1.024996165547932</v>
       </c>
       <c r="L24">
-        <v>1.031034869308844</v>
+        <v>1.013904421756699</v>
       </c>
       <c r="M24">
-        <v>1.038381474347611</v>
+        <v>0.9452568927492438</v>
       </c>
       <c r="N24">
-        <v>1.035199136495882</v>
+        <v>1.020533085690639</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029007265240068</v>
+        <v>0.9994697061295673</v>
       </c>
       <c r="D25">
-        <v>1.034603545160406</v>
+        <v>1.017649939029305</v>
       </c>
       <c r="E25">
-        <v>1.028923737886028</v>
+        <v>1.006384714735704</v>
       </c>
       <c r="F25">
-        <v>1.038908382505991</v>
+        <v>0.9541140998843849</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037432697234461</v>
+        <v>1.041921303401351</v>
       </c>
       <c r="J25">
-        <v>1.034641278135998</v>
+        <v>1.024014929967459</v>
       </c>
       <c r="K25">
-        <v>1.037659839314962</v>
+        <v>1.029980304508317</v>
       </c>
       <c r="L25">
-        <v>1.031998035281274</v>
+        <v>1.018884718218204</v>
       </c>
       <c r="M25">
-        <v>1.041951174963077</v>
+        <v>0.9674691080702288</v>
       </c>
       <c r="N25">
-        <v>1.036110587425965</v>
+        <v>1.025469148624168</v>
       </c>
     </row>
   </sheetData>
